--- a/public/xlsx/template.xlsx
+++ b/public/xlsx/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drama\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\SRP_2021\3实施\3实现\repo\Server\2021sxzx-server\public\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEBBC76-DD13-41F1-9D9A-F9A1A77E490E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC710CE-2A74-481C-B8B9-0AC34498C0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2364" yWindow="360" windowWidth="16236" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,53 +25,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处室名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘多武123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noKPI12345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘多武1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noKPI123456</t>
+    <t>系统账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张倩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国南方人才市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁浩荣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -411,55 +387,37 @@
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>15813310170</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>13533461431</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1234567</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>1234567</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/public/xlsx/template.xlsx
+++ b/public/xlsx/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\SRP_2021\3实施\3实现\repo\Server\2021sxzx-server\public\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhy\Documents\LHY\resource\学习\大学\6-5 实习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC710CE-2A74-481C-B8B9-0AC34498C0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C06BDA-7DEB-4BDB-B5A1-59F9E3DA9B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="360" windowWidth="16236" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,29 +25,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统账号</t>
+  </si>
   <si>
     <t>用户名</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>张倩</t>
+  </si>
+  <si>
+    <t>中国南方人才市场</t>
+  </si>
+  <si>
+    <t>袁浩荣</t>
+  </si>
+  <si>
+    <t>业务员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张倩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国南方人才市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁浩荣</t>
+    <t>操作员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,51 +379,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15813310170</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13533461431</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
